--- a/pr-preview/pr-6/all-profiles.xlsx
+++ b/pr-preview/pr-6/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T18:32:16+00:00</t>
+    <t>2025-08-26T18:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/all-profiles.xlsx
+++ b/pr-preview/pr-6/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T18:54:13+00:00</t>
+    <t>2025-08-26T18:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/all-profiles.xlsx
+++ b/pr-preview/pr-6/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T18:57:21+00:00</t>
+    <t>2025-08-26T19:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/all-profiles.xlsx
+++ b/pr-preview/pr-6/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T19:03:31+00:00</t>
+    <t>2025-08-26T20:21:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/all-profiles.xlsx
+++ b/pr-preview/pr-6/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T20:21:56+00:00</t>
+    <t>2025-08-26T20:31:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/all-profiles.xlsx
+++ b/pr-preview/pr-6/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T20:31:46+00:00</t>
+    <t>2025-09-09T12:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,7 +344,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -648,7 +648,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>Patient.multipleBirth[x]</t>
@@ -775,7 +775,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
@@ -826,7 +826,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -917,7 +917,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1577,7 +1577,7 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.35546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
